--- a/biology/Botanique/Parc_de_Matti_Helenius/Parc_de_Matti_Helenius.xlsx
+++ b/biology/Botanique/Parc_de_Matti_Helenius/Parc_de_Matti_Helenius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc de Matti Helenius (finnois : Matti Heleniuksen puisto) est un parc du quartier de Kallio à Helsinki en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc de Matti Helenius (finnois : Matti Heleniuksen puisto) est un parc du quartier de Kallio à Helsinki en Finlande,.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est nommé en mémoire de Matti Helenius-Seppälä, politicien finlandais.
 Le parc est situé sur le versant nord-est de la colline du Kallio, derrière la bibliothèque du Kallio, il couvre une superficie de 0,4 hectare.
 Le parc est bordé à l'ouest par la rue Fleminginkatu, au nord par Agricolankatu, à l'est par Porthaninkatu et au sud par la bibliothèque du Kallio.
 Le parc de l'ours se trouve sur son côté Ouest et le parc d'Alli Trygg sur son côté Est.
-Le parc Matti Helenius est planté de mélèzes, d’érables et de lilas[1].
+Le parc Matti Helenius est planté de mélèzes, d’érables et de lilas.
 </t>
         </is>
       </c>
